--- a/Holbrook.xlsx
+++ b/Holbrook.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore_automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05113A2F-F90E-914D-B5A9-E07B2467AB26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24580" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HealthScore 2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>421100</t>
   </si>
@@ -302,13 +319,28 @@
   </si>
   <si>
     <t>Average Number of Cars Per Household</t>
+  </si>
+  <si>
+    <t>urb</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>rur</t>
+  </si>
+  <si>
+    <t>weighted average</t>
+  </si>
+  <si>
+    <t>simple average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,12 +357,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -360,17 +398,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +496,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,6 +548,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,14 +741,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -732,7 +820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -764,10 +852,10 @@
         <v>-555555555</v>
       </c>
       <c r="K3">
-        <v>0.002764594332749488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>2.7645943327494881E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -799,10 +887,10 @@
         <v>6301</v>
       </c>
       <c r="K4">
-        <v>0.001985215399049235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>1.9852153990492349E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -834,10 +922,10 @@
         <v>5635</v>
       </c>
       <c r="K5">
-        <v>0.001759869690433539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>1.759869690433539E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -869,10 +957,10 @@
         <v>2385</v>
       </c>
       <c r="K6">
-        <v>0.004914057869497279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>4.9140578694972792E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -904,10 +992,10 @@
         <v>1600</v>
       </c>
       <c r="K7">
-        <v>0.001995974784185226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>1.9959747841852261E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,10 +1027,10 @@
         <v>2155</v>
       </c>
       <c r="K8">
-        <v>0.00243781031027837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2.4378103102783702E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -974,10 +1062,10 @@
         <v>3660</v>
       </c>
       <c r="K9">
-        <v>0.001733458819409486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>1.733458819409486E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,10 +1097,10 @@
         <v>-555555555</v>
       </c>
       <c r="K10">
-        <v>0.002908619768652583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>2.9086197686525829E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,15 +1132,15 @@
         <v>4909</v>
       </c>
       <c r="K11">
-        <v>0.002638398439425145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>2.6383984394251448E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C12">
         <v>1.9</v>
@@ -1070,7 +1158,7 @@
         <v>2.1</v>
       </c>
       <c r="H12">
-        <v>6.000000000000001</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="I12">
         <v>5.2</v>
@@ -1082,7 +1170,7 @@
         <v>1.153846153846154</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1117,7 +1205,7 @@
         <v>2.285714285714286</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1125,13 +1213,13 @@
         <v>5.7</v>
       </c>
       <c r="C14">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D14">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E14">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F14">
         <v>5.6</v>
@@ -1152,7 +1240,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1184,10 +1272,10 @@
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>4.238805970149254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>4.2388059701492544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1210,30 +1298,30 @@
         <v>7.1</v>
       </c>
       <c r="H16">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="I16">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J16">
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>3.688172043010752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>3.6881720430107521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C17">
         <v>7.2</v>
       </c>
       <c r="D17">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E17">
         <v>7.5</v>
@@ -1257,7 +1345,7 @@
         <v>4.028169014084507</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1277,7 +1365,7 @@
         <v>11.5</v>
       </c>
       <c r="G18">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H18">
         <v>28</v>
@@ -1289,10 +1377,10 @@
         <v>0.2</v>
       </c>
       <c r="K18">
-        <v>2.31404958677686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>2.3140495867768598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1397,7 @@
         <v>7.2</v>
       </c>
       <c r="F19">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G19">
         <v>6.3</v>
@@ -1324,10 +1412,10 @@
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>3.426966292134831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>3.4269662921348312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1350,19 +1438,19 @@
         <v>6.1</v>
       </c>
       <c r="H20">
-        <v>36.40000000000001</v>
+        <v>36.400000000000013</v>
       </c>
       <c r="I20">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>3.568627450980393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>3.5686274509803928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1397,7 +1485,7 @@
         <v>1.742424242424242</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1429,10 +1517,10 @@
         <v>1265</v>
       </c>
       <c r="K22">
-        <v>0.002830376206942161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>2.8303762069421608E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1464,10 +1552,10 @@
         <v>10241</v>
       </c>
       <c r="K23">
-        <v>0.001938434156384644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>1.9384341563846439E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1578,7 @@
         <v>3.8</v>
       </c>
       <c r="H24">
-        <v>7.049775688955351</v>
+        <v>7.0497756889553509</v>
       </c>
       <c r="I24">
         <v>10.3</v>
@@ -1499,10 +1587,10 @@
         <v>0.2</v>
       </c>
       <c r="K24">
-        <v>0.6844442416461505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.68444424164615048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,10 +1622,10 @@
         <v>660</v>
       </c>
       <c r="K25">
-        <v>0.002821600679091441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>2.8216006790914411E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1569,10 +1657,10 @@
         <v>4248</v>
       </c>
       <c r="K26">
-        <v>0.0037699531161921</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3.7699531161921001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,10 +1692,10 @@
         <v>10868</v>
       </c>
       <c r="K27">
-        <v>0.001716078724213943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>1.7160787242139429E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1703,7 @@
         <v>4.7</v>
       </c>
       <c r="C28">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D28">
         <v>6.4</v>
@@ -1630,7 +1718,7 @@
         <v>1.3</v>
       </c>
       <c r="H28">
-        <v>4.21372719374457</v>
+        <v>4.2137271937445702</v>
       </c>
       <c r="I28">
         <v>5.8</v>
@@ -1639,10 +1727,10 @@
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>0.7265046885766501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.72650468857665007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1674,10 +1762,10 @@
         <v>4909</v>
       </c>
       <c r="K29">
-        <v>0.002638398439425145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>2.6383984394251448E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,10 +1797,10 @@
         <v>2902</v>
       </c>
       <c r="K30">
-        <v>0.001903889561320292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>1.9038895613202921E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1744,10 +1832,10 @@
         <v>2233</v>
       </c>
       <c r="K31">
-        <v>0.001388481470616994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>1.3884814706169939E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1779,10 +1867,10 @@
         <v>694</v>
       </c>
       <c r="K32">
-        <v>0.00174959640952389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>1.74959640952389E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1802,10 +1890,10 @@
         <v>23.3</v>
       </c>
       <c r="G33">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H33">
-        <v>11.43317230273752</v>
+        <v>11.433172302737519</v>
       </c>
       <c r="I33">
         <v>14.4</v>
@@ -1814,10 +1902,10 @@
         <v>0.6</v>
       </c>
       <c r="K33">
-        <v>0.7939702988012166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.79397029880121661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1849,10 +1937,10 @@
         <v>2171</v>
       </c>
       <c r="K34">
-        <v>0.002726865873585828</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>2.726865873585828E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1884,24 +1972,24 @@
         <v>666</v>
       </c>
       <c r="K35">
-        <v>0.00306731280988263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>3.0673128098826301E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C36">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D36">
         <v>15.7</v>
       </c>
       <c r="E36">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F36">
         <v>0.4</v>
@@ -1910,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>7.975646879756469</v>
+        <v>7.9756468797564688</v>
       </c>
       <c r="I36">
         <v>9</v>
@@ -1919,10 +2007,10 @@
         <v>0.2</v>
       </c>
       <c r="K36">
-        <v>0.8861829866396076</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.88618298663960759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1954,15 +2042,15 @@
         <v>8541</v>
       </c>
       <c r="K37">
-        <v>0.002771762325752877</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>2.771762325752877E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C38">
         <v>6.7</v>
@@ -1971,7 +2059,7 @@
         <v>11.1</v>
       </c>
       <c r="E38">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F38">
         <v>13.4</v>
@@ -1980,7 +2068,7 @@
         <v>5.2</v>
       </c>
       <c r="H38">
-        <v>14.10117036433951</v>
+        <v>14.101170364339509</v>
       </c>
       <c r="I38">
         <v>10.4</v>
@@ -1992,7 +2080,7 @@
         <v>1.355881765801876</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2015,19 +2103,19 @@
         <v>0.9</v>
       </c>
       <c r="H39">
-        <v>0.3969366985548545</v>
+        <v>0.39693669855485447</v>
       </c>
       <c r="I39">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J39">
         <v>0.1</v>
       </c>
       <c r="K39">
-        <v>0.08100748950099071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>8.1007489500990709E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2062,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2085,7 +2173,7 @@
         <v>1.9</v>
       </c>
       <c r="H41">
-        <v>4.866156787762907</v>
+        <v>4.8661567877629066</v>
       </c>
       <c r="I41">
         <v>4.8</v>
@@ -2097,7 +2185,7 @@
         <v>1.013782664117272</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2129,10 +2217,10 @@
         <v>7798</v>
       </c>
       <c r="K42">
-        <v>0.002751957349396766</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>2.751957349396766E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2164,10 +2252,10 @@
         <v>3273</v>
       </c>
       <c r="K43">
-        <v>0.002776035559433885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>2.7760355594338851E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2199,10 +2287,10 @@
         <v>4909</v>
       </c>
       <c r="K44">
-        <v>0.002638398439425145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>2.6383984394251448E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2234,10 +2322,10 @@
         <v>3641</v>
       </c>
       <c r="K45">
-        <v>0.001515525649731465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>1.515525649731465E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2269,10 +2357,10 @@
         <v>5288</v>
       </c>
       <c r="K46">
-        <v>0.002968187591194087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>2.9681875911940869E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2304,10 +2392,10 @@
         <v>5951</v>
       </c>
       <c r="K47">
-        <v>0.002569871000901561</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>2.569871000901561E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2339,36 +2427,36 @@
         <v>3959</v>
       </c>
       <c r="K48">
-        <v>0.002934191952335315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>2.9341919523353148E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D49">
         <v>81</v>
       </c>
       <c r="F49">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="H49">
-        <v>79.07953240360951</v>
+        <v>79.079532403609505</v>
       </c>
       <c r="I49">
         <v>80.7</v>
       </c>
       <c r="J49">
-        <v>0.0267</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="K49">
-        <v>0.9799198563024721</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>0.97991985630247214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2376,22 +2464,22 @@
         <v>7.1</v>
       </c>
       <c r="C50">
-        <v>0.3000000000000003</v>
+        <v>0.30000000000000032</v>
       </c>
       <c r="D50">
-        <v>6.599999999999999</v>
+        <v>6.5999999999999988</v>
       </c>
       <c r="E50">
-        <v>0.1999999999999997</v>
+        <v>0.19999999999999971</v>
       </c>
       <c r="F50">
         <v>7.1</v>
       </c>
       <c r="G50">
-        <v>0.3000000000000003</v>
+        <v>0.30000000000000032</v>
       </c>
       <c r="H50">
-        <v>6.891743268086945</v>
+        <v>6.8917432680869446</v>
       </c>
       <c r="I50">
         <v>5.8</v>
@@ -2403,7 +2491,7 @@
         <v>1.188231597946025</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2420,7 +2508,7 @@
         <v>18494</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2428,22 +2516,22 @@
         <v>10.7</v>
       </c>
       <c r="C52">
-        <v>0.5500000000000007</v>
+        <v>0.55000000000000071</v>
       </c>
       <c r="D52">
         <v>11.4</v>
       </c>
       <c r="E52">
-        <v>0.4500000000000002</v>
+        <v>0.45000000000000018</v>
       </c>
       <c r="F52">
         <v>10</v>
       </c>
       <c r="G52">
-        <v>0.5999999999999996</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="H52">
-        <v>10.77691143073429</v>
+        <v>10.776911430734289</v>
       </c>
       <c r="I52">
         <v>10.3</v>
@@ -2455,7 +2543,7 @@
         <v>1.046302080653815</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2463,25 +2551,25 @@
         <v>6.3</v>
       </c>
       <c r="C53">
-        <v>0.8999999999999999</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D53">
         <v>6.4</v>
       </c>
       <c r="E53">
-        <v>0.8000000000000003</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="F53">
-        <v>5.499999999999999</v>
+        <v>5.4999999999999991</v>
       </c>
       <c r="G53">
-        <v>0.9000000000000004</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="H53">
-        <v>6.096339353303773</v>
+        <v>6.0963393533037733</v>
       </c>
       <c r="I53">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J53">
         <v>0.7</v>
@@ -2490,7 +2578,7 @@
         <v>1.32529116376169</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -2498,22 +2586,22 @@
         <v>6.2</v>
       </c>
       <c r="C54">
-        <v>0.5500000000000003</v>
+        <v>0.55000000000000027</v>
       </c>
       <c r="D54">
         <v>6.4</v>
       </c>
       <c r="E54">
-        <v>0.4499999999999997</v>
+        <v>0.44999999999999968</v>
       </c>
       <c r="F54">
         <v>5.7</v>
       </c>
       <c r="G54">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H54">
-        <v>6.129982697090949</v>
+        <v>6.1299826970909486</v>
       </c>
       <c r="I54">
         <v>3.1</v>
@@ -2522,10 +2610,10 @@
         <v>0.5</v>
       </c>
       <c r="K54">
-        <v>1.977413773255145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>1.9774137732551449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2533,22 +2621,22 @@
         <v>9.1</v>
       </c>
       <c r="C55">
-        <v>0.6499999999999995</v>
+        <v>0.64999999999999947</v>
       </c>
       <c r="D55">
         <v>11.4</v>
       </c>
       <c r="E55">
-        <v>0.6499999999999995</v>
+        <v>0.64999999999999947</v>
       </c>
       <c r="F55">
-        <v>8.200000000000001</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="G55">
-        <v>0.7000000000000002</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="H55">
-        <v>9.782004974586352</v>
+        <v>9.7820049745863518</v>
       </c>
       <c r="I55">
         <v>7.7</v>
@@ -2560,7 +2648,7 @@
         <v>1.270390256439786</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2574,13 +2662,13 @@
         <v>3.6</v>
       </c>
       <c r="E56">
-        <v>0.3500000000000001</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="F56">
         <v>2.7</v>
       </c>
       <c r="G56">
-        <v>0.3500000000000001</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="H56">
         <v>3.185600735373634</v>
@@ -2592,10 +2680,10 @@
         <v>0.7</v>
       </c>
       <c r="K56">
-        <v>0.9369413927569513</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>0.93694139275695132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,18 +2712,18 @@
         <v>12</v>
       </c>
       <c r="J57">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K57">
         <v>1.147558667676003</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58">
-        <v>40.45</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="D58">
         <v>27.29</v>
@@ -2644,16 +2732,16 @@
         <v>46.23</v>
       </c>
       <c r="H58">
-        <v>36.63386771300448</v>
+        <v>36.633867713004477</v>
       </c>
       <c r="I58">
-        <v>45.43031809145127</v>
+        <v>45.430318091451269</v>
       </c>
       <c r="K58">
-        <v>0.8063748891051231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>0.80637488910512312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2670,7 +2758,7 @@
         <v>7136</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -2686,33 +2774,51 @@
       <c r="H60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60" t="s">
+        <v>97</v>
+      </c>
+      <c r="N60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H61">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>22.84</v>
+      </c>
+      <c r="M61">
+        <v>45.43</v>
+      </c>
+      <c r="N61">
+        <v>55.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B62">
-        <v>3958.416</v>
+        <v>3958.4160000000002</v>
       </c>
       <c r="D62">
         <v>6908.49</v>
       </c>
       <c r="F62">
-        <v>4556.766000000001</v>
+        <v>4556.7660000000014</v>
       </c>
       <c r="H62">
         <v>15423.672</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2720,16 +2826,23 @@
         <v>363.52</v>
       </c>
       <c r="D63">
-        <v>508.398</v>
+        <v>508.39800000000002</v>
       </c>
       <c r="F63">
-        <v>402.641</v>
+        <v>402.64100000000002</v>
       </c>
       <c r="H63">
         <v>1274.559</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <f>(M61*B59+M61*F59+L61*D59)/H59</f>
+        <v>35.967904988789236</v>
+      </c>
+      <c r="M63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2737,16 +2850,23 @@
         <v>547.84</v>
       </c>
       <c r="D64">
-        <v>878.1419999999999</v>
+        <v>878.14199999999994</v>
       </c>
       <c r="F64">
         <v>567.1</v>
       </c>
       <c r="H64">
-        <v>1993.082</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>1993.0820000000001</v>
+      </c>
+      <c r="L64" s="2">
+        <f>M61*(2/3)+L61*(1/3)</f>
+        <v>37.9</v>
+      </c>
+      <c r="M64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2754,16 +2874,16 @@
         <v>322.56</v>
       </c>
       <c r="D65">
-        <v>492.992</v>
+        <v>492.99200000000002</v>
       </c>
       <c r="F65">
-        <v>311.905</v>
+        <v>311.90499999999997</v>
       </c>
       <c r="H65">
-        <v>1127.457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>1127.4570000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2771,16 +2891,16 @@
         <v>317.44</v>
       </c>
       <c r="D66">
-        <v>492.992</v>
+        <v>492.99200000000002</v>
       </c>
       <c r="F66">
-        <v>323.247</v>
+        <v>323.24700000000001</v>
       </c>
       <c r="H66">
-        <v>1133.679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>1133.6790000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2788,16 +2908,16 @@
         <v>465.92</v>
       </c>
       <c r="D67">
-        <v>878.1419999999999</v>
+        <v>878.14199999999994</v>
       </c>
       <c r="F67">
-        <v>465.022</v>
+        <v>465.02199999999999</v>
       </c>
       <c r="H67">
-        <v>1809.084</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>1809.0840000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,16 +2925,16 @@
         <v>158.72</v>
       </c>
       <c r="D68">
-        <v>277.308</v>
+        <v>277.30799999999999</v>
       </c>
       <c r="F68">
-        <v>153.117</v>
+        <v>153.11699999999999</v>
       </c>
       <c r="H68">
-        <v>589.145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>589.14499999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -2825,30 +2945,30 @@
         <v>1093.826</v>
       </c>
       <c r="F69">
-        <v>725.888</v>
+        <v>725.88800000000003</v>
       </c>
       <c r="H69">
-        <v>2546.754</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>2546.7539999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B70">
-        <v>540.148</v>
+        <v>540.14800000000002</v>
       </c>
       <c r="D70">
-        <v>445.443</v>
+        <v>445.44299999999998</v>
       </c>
       <c r="F70">
         <v>399.99</v>
       </c>
       <c r="H70">
-        <v>1385.581</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>1385.5809999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -2856,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>24.078</v>
+        <v>24.077999999999999</v>
       </c>
       <c r="F71">
-        <v>14.925</v>
+        <v>14.925000000000001</v>
       </c>
       <c r="H71">
         <v>39.003</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -2882,32 +3002,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B73">
-        <v>830.4385000000001</v>
+        <v>830.43850000000009</v>
       </c>
       <c r="D73">
-        <v>815.6981</v>
+        <v>815.69809999999995</v>
       </c>
       <c r="F73">
-        <v>968.0562</v>
+        <v>968.05619999999999</v>
       </c>
       <c r="H73">
-        <v>2614.1928</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>2614.1927999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B74">
-        <v>45.93600000000001</v>
+        <v>45.936000000000007</v>
       </c>
       <c r="C74">
-        <v>3.914</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="D74">
         <v>57.372</v>
@@ -2916,39 +3036,39 @@
         <v>3.24</v>
       </c>
       <c r="F74">
-        <v>35.462</v>
+        <v>35.462000000000003</v>
       </c>
       <c r="G74">
-        <v>4.074000000000001</v>
+        <v>4.0740000000000007</v>
       </c>
       <c r="H74">
-        <v>149.998</v>
+        <v>149.99799999999999</v>
       </c>
       <c r="I74">
-        <v>136109.844</v>
+        <v>136109.84400000001</v>
       </c>
       <c r="J74">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K74">
-        <v>0.001102036381732978</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>1.1020363817329779E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B75">
-        <v>119.016</v>
+        <v>119.01600000000001</v>
       </c>
       <c r="C75">
-        <v>6.386</v>
+        <v>6.3860000000000001</v>
       </c>
       <c r="D75">
-        <v>90.15600000000001</v>
+        <v>90.156000000000006</v>
       </c>
       <c r="E75">
-        <v>3.888</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="F75">
         <v>12.516</v>
@@ -2963,59 +3083,59 @@
         <v>109934.874</v>
       </c>
       <c r="J75">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K75">
-        <v>0.002125876816850674</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>2.125876816850674E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B76">
-        <v>119.016</v>
+        <v>119.01600000000001</v>
       </c>
       <c r="C76">
-        <v>9.064</v>
+        <v>9.0640000000000001</v>
       </c>
       <c r="D76">
-        <v>133.868</v>
+        <v>133.86799999999999</v>
       </c>
       <c r="E76">
-        <v>6.641999999999999</v>
+        <v>6.6419999999999986</v>
       </c>
       <c r="F76">
         <v>116.816</v>
       </c>
       <c r="G76">
-        <v>7.566</v>
+        <v>7.5659999999999998</v>
       </c>
       <c r="H76">
-        <v>392.972</v>
+        <v>392.97199999999998</v>
       </c>
       <c r="I76">
-        <v>188459.784</v>
+        <v>188459.78400000001</v>
       </c>
       <c r="J76">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K76">
-        <v>0.002085176962741292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>2.0851769627412919E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B77">
-        <v>185.832</v>
+        <v>185.83199999999999</v>
       </c>
       <c r="C77">
         <v>10.3</v>
       </c>
       <c r="D77">
-        <v>379.748</v>
+        <v>379.74799999999999</v>
       </c>
       <c r="E77">
         <v>10.044</v>
@@ -3024,30 +3144,30 @@
         <v>116.816</v>
       </c>
       <c r="G77">
-        <v>6.013999999999999</v>
+        <v>6.0139999999999993</v>
       </c>
       <c r="H77">
-        <v>708.7540000000001</v>
+        <v>708.75400000000013</v>
       </c>
       <c r="I77">
         <v>175372.299</v>
       </c>
       <c r="J77">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K77">
-        <v>0.004041425037143409</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>4.0414250371434094E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B78">
-        <v>127.368</v>
+        <v>127.36799999999999</v>
       </c>
       <c r="C78">
-        <v>7.004</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="D78">
         <v>325.108</v>
@@ -3056,25 +3176,25 @@
         <v>10.53</v>
       </c>
       <c r="F78">
-        <v>340.018</v>
+        <v>340.01799999999997</v>
       </c>
       <c r="G78">
-        <v>13.774</v>
+        <v>13.773999999999999</v>
       </c>
       <c r="H78">
-        <v>823.802</v>
+        <v>823.80200000000002</v>
       </c>
       <c r="I78">
-        <v>243427.221</v>
+        <v>243427.22099999999</v>
       </c>
       <c r="J78">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K78">
-        <v>0.003384181919408265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>3.3841819194082648E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -3082,34 +3202,34 @@
         <v>425.952</v>
       </c>
       <c r="C79">
-        <v>14.832</v>
+        <v>14.832000000000001</v>
       </c>
       <c r="D79">
-        <v>494.492</v>
+        <v>494.49200000000002</v>
       </c>
       <c r="E79">
         <v>12.15</v>
       </c>
       <c r="F79">
-        <v>390.082</v>
+        <v>390.08199999999999</v>
       </c>
       <c r="G79">
-        <v>13.386</v>
+        <v>13.385999999999999</v>
       </c>
       <c r="H79">
         <v>1350.894</v>
       </c>
       <c r="I79">
-        <v>371684.574</v>
+        <v>371684.57400000002</v>
       </c>
       <c r="J79">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K79">
-        <v>0.003634517261402407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>3.634517261402407E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -3123,36 +3243,36 @@
         <v>163.92</v>
       </c>
       <c r="E80">
-        <v>5.346</v>
+        <v>5.3460000000000001</v>
       </c>
       <c r="F80">
         <v>239.89</v>
       </c>
       <c r="G80">
-        <v>9.506</v>
+        <v>9.5060000000000002</v>
       </c>
       <c r="H80">
-        <v>650.0559999999999</v>
+        <v>650.05599999999993</v>
       </c>
       <c r="I80">
-        <v>316717.137</v>
+        <v>316717.13699999999</v>
       </c>
       <c r="J80">
-        <v>9.818000000000001</v>
+        <v>9.8180000000000014</v>
       </c>
       <c r="K80">
-        <v>0.002052481296583582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>2.052481296583582E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B81">
-        <v>451.008</v>
+        <v>451.00799999999998</v>
       </c>
       <c r="C81">
-        <v>13.184</v>
+        <v>13.183999999999999</v>
       </c>
       <c r="D81">
         <v>587.38</v>
@@ -3161,39 +3281,39 @@
         <v>11.664</v>
       </c>
       <c r="F81">
-        <v>373.3939999999999</v>
+        <v>373.39399999999989</v>
       </c>
       <c r="G81">
         <v>12.222</v>
       </c>
       <c r="H81">
-        <v>1448.852</v>
+        <v>1448.8520000000001</v>
       </c>
       <c r="I81">
-        <v>465914.466</v>
+        <v>465914.46600000001</v>
       </c>
       <c r="J81">
-        <v>9.818000000000001</v>
+        <v>9.8180000000000014</v>
       </c>
       <c r="K81">
-        <v>0.003109695246079782</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>3.109695246079782E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B82">
-        <v>273.528</v>
+        <v>273.52800000000002</v>
       </c>
       <c r="C82">
-        <v>17.716</v>
+        <v>17.716000000000001</v>
       </c>
       <c r="D82">
         <v>314.18</v>
       </c>
       <c r="E82">
-        <v>9.558</v>
+        <v>9.5579999999999998</v>
       </c>
       <c r="F82">
         <v>246.148</v>
@@ -3202,19 +3322,19 @@
         <v>11.834</v>
       </c>
       <c r="H82">
-        <v>872.9639999999999</v>
+        <v>872.96399999999994</v>
       </c>
       <c r="I82">
-        <v>266984.694</v>
+        <v>266984.69400000002</v>
       </c>
       <c r="J82">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K82">
-        <v>0.003269715529085724</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>3.2697155290857239E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -3225,31 +3345,31 @@
         <v>12.36</v>
       </c>
       <c r="D83">
-        <v>185.776</v>
+        <v>185.77600000000001</v>
       </c>
       <c r="E83">
         <v>7.29</v>
       </c>
       <c r="F83">
-        <v>216.944</v>
+        <v>216.94399999999999</v>
       </c>
       <c r="G83">
         <v>13.58</v>
       </c>
       <c r="H83">
-        <v>557.0540000000001</v>
+        <v>557.05400000000009</v>
       </c>
       <c r="I83">
-        <v>345509.604</v>
+        <v>345509.60399999999</v>
       </c>
       <c r="J83">
-        <v>4.909000000000001</v>
+        <v>4.9090000000000007</v>
       </c>
       <c r="K83">
-        <v>0.001612267773604348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>1.612267773604348E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -3260,54 +3380,54 @@
         <v>8.626329760673304</v>
       </c>
       <c r="D84">
-        <v>31.59591617409995</v>
+        <v>31.595916174099951</v>
       </c>
       <c r="E84">
-        <v>5.912089145640349</v>
+        <v>5.9120891456403486</v>
       </c>
       <c r="F84">
-        <v>48.5059247810407</v>
+        <v>48.505924781040697</v>
       </c>
       <c r="G84">
-        <v>9.153912854076381</v>
+        <v>9.1539128540763812</v>
       </c>
       <c r="H84">
-        <v>36.73287874295879</v>
+        <v>36.732878742958789</v>
       </c>
       <c r="I84">
-        <v>51.29428278704381</v>
+        <v>51.294282787043812</v>
       </c>
       <c r="J84">
         <v>2290.30303030303</v>
       </c>
       <c r="K84">
-        <v>0.7161203305144366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>0.71612033051443658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B85">
-        <v>30.85031623330991</v>
+        <v>30.850316233309911</v>
       </c>
       <c r="C85">
         <v>11.2893235753362</v>
       </c>
       <c r="D85">
-        <v>70.99062579174056</v>
+        <v>70.990625791740555</v>
       </c>
       <c r="E85">
         <v>7.850708734158113</v>
       </c>
       <c r="F85">
-        <v>17.95254997197833</v>
+        <v>17.952549971978328</v>
       </c>
       <c r="G85">
-        <v>12.08862440926175</v>
+        <v>12.088624409261749</v>
       </c>
       <c r="H85">
-        <v>43.93579386451238</v>
+        <v>43.935793864512377</v>
       </c>
       <c r="I85">
         <v>21.92545623689066</v>
@@ -3319,71 +3439,71 @@
         <v>2.003871362575719</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B86">
-        <v>49.04458598726114</v>
+        <v>49.044585987261136</v>
       </c>
       <c r="C86">
-        <v>17.24659441300645</v>
+        <v>17.246594413006449</v>
       </c>
       <c r="D86">
-        <v>73.69519832985387</v>
+        <v>73.695198329853866</v>
       </c>
       <c r="E86">
-        <v>22.7330566927584</v>
+        <v>22.733056692758399</v>
       </c>
       <c r="F86">
-        <v>74.3421052631579</v>
+        <v>74.342105263157904</v>
       </c>
       <c r="G86">
-        <v>27.27262161110839</v>
+        <v>27.272621611108391</v>
       </c>
       <c r="H86">
-        <v>67.10905943450663</v>
+        <v>67.109059434506634</v>
       </c>
       <c r="I86">
-        <v>46.68376776625519</v>
+        <v>46.683767766255187</v>
       </c>
       <c r="J86">
         <v>173.9130434782609</v>
       </c>
       <c r="K86">
-        <v>1.437524489679593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>1.4375244896795929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B87">
-        <v>1.64367816091954</v>
+        <v>1.6436781609195401</v>
       </c>
       <c r="C87">
-        <v>5.402912621359223</v>
+        <v>5.4029126213592233</v>
       </c>
       <c r="D87">
         <v>1.502562225475842</v>
       </c>
       <c r="E87">
-        <v>7.111111111111111</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="F87">
-        <v>1.823585810162991</v>
+        <v>1.8235858101629909</v>
       </c>
       <c r="G87">
-        <v>5.025773195876289</v>
+        <v>5.0257731958762886</v>
       </c>
       <c r="H87">
-        <v>1.642195192586157</v>
+        <v>1.6421951925861571</v>
       </c>
       <c r="I87">
-        <v>1.56265050160516</v>
+        <v>1.5626505016051599</v>
       </c>
       <c r="J87">
-        <v>5.921165206763088</v>
+        <v>5.9211652067630878</v>
       </c>
       <c r="K87">
         <v>1.050903699131245</v>
